--- a/input files/L02E/L02E-Link.xlsx
+++ b/input files/L02E/L02E-Link.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\other\htmlGenerator\sample files\L02E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\input files\L02E\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,21 +29,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-Breadcrumb names should be in Left to Right Order.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,13 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
-  <si>
-    <t>Breadcrumb_Names</t>
-  </si>
-  <si>
-    <t>Breadcrumb_Links</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Breadcrumb</t>
   </si>
@@ -76,73 +56,58 @@
     <t>Going_to</t>
   </si>
   <si>
-    <t>Going_to_Name</t>
-  </si>
-  <si>
-    <t>Going_to_Link</t>
-  </si>
-  <si>
     <t>&lt;a class="link" href="#LINK"&gt;#TEXT&lt;/a&gt;</t>
   </si>
   <si>
     <t>Weather_in</t>
   </si>
   <si>
-    <t>Weather_in_Name</t>
-  </si>
-  <si>
-    <t>Weather_in_Link</t>
-  </si>
-  <si>
     <t>Search_more_CB</t>
   </si>
   <si>
-    <t>Search_more_CB_Name</t>
-  </si>
-  <si>
-    <t>Search_more_CB_Link</t>
-  </si>
-  <si>
-    <t>&lt;a class="link" href="#LINK"&gt;#TEXT&lt;/a&gt; &lt;span class="font-bold"&gt;,&lt;/span&gt;</t>
-  </si>
-  <si>
     <t>UK_CB</t>
   </si>
   <si>
-    <t>UK_CB_Name</t>
-  </si>
-  <si>
-    <t>UK_CB_Link</t>
-  </si>
-  <si>
     <t>Book_CB</t>
   </si>
   <si>
-    <t>Book_CB_Name</t>
-  </si>
-  <si>
-    <t>Book_CB_Link</t>
-  </si>
-  <si>
     <t>NEW_KEY</t>
   </si>
   <si>
-    <t>TEXT_KEY</t>
-  </si>
-  <si>
-    <t>LINK_KEY</t>
-  </si>
-  <si>
-    <t>&lt;a href="#LINK"&gt;#TEXT&lt;/a&gt; &lt;span&gt; &gt; &lt;/span&gt;&lt;span class="breadcrumb-spliter"&gt; / &lt;/span&gt;</t>
-  </si>
-  <si>
     <t>TEMPLATE</t>
   </si>
   <si>
-    <t>&lt;a class="active" href="#LINK"&gt;#TEXT&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>LAST_TEMPLATE</t>
+  </si>
+  <si>
+    <t>#LINK:Going_to_Link,#TEXT:Going_to_Name</t>
+  </si>
+  <si>
+    <t>#LINK:Weather_in_Link,#TEXT:Weather_in_Name</t>
+  </si>
+  <si>
+    <t>#LINK:Search_more_CB_Link,#TEXT:Search_more_CB_Name</t>
+  </si>
+  <si>
+    <t>#LINK:UK_CB_Link,#TEXT:UK_CB_Name</t>
+  </si>
+  <si>
+    <t>#LINK:Book_CB_Link,#TEXT:Book_CB_Name</t>
+  </si>
+  <si>
+    <t>#LINK:Breadcrumb_Links,#TEXT:Breadcrumb_Names</t>
+  </si>
+  <si>
+    <t>TEMP_MAP_KEY</t>
+  </si>
+  <si>
+    <t>&lt;a class="active"&gt;#TEXT&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="#LINK"&gt;#TEXT&lt;/a&gt; &lt;span&gt; &gt;&lt;/span&gt;&lt;span class="breadcrumb-spliter"&gt; / &lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a class="link" href="#LINK"&gt;#TEXT&lt;/a&gt;&lt;span class="font-bold"&gt;, &lt;/span&gt;</t>
   </si>
 </sst>
 </file>
@@ -520,129 +485,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="84.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
